--- a/tabelas_numeromania.xlsx
+++ b/tabelas_numeromania.xlsx
@@ -8,28 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuário-Pc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D412CF-F8E0-46E2-9D88-589B5F2C9BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C9B178-53C7-4669-BF69-86989DB1CF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="tabela1 - atraso" sheetId="1" r:id="rId1"/>
-    <sheet name="tabela 2 - duplas mais sairam" sheetId="14" r:id="rId2"/>
-    <sheet name="tabela 3 - duplas que - sairam" sheetId="15" r:id="rId3"/>
-    <sheet name="tabela 4 - tricas mais sairam" sheetId="16" r:id="rId4"/>
-    <sheet name="tabela 5 quadras que + sairam" sheetId="17" r:id="rId5"/>
-    <sheet name="tabela 6 -repetição consecutiva" sheetId="18" r:id="rId6"/>
-    <sheet name="tabela 7 - AUSÊNCIA CONSECUTIVA" sheetId="19" r:id="rId7"/>
-    <sheet name=" tabela 8 - CONTROLE DE CICLOS " sheetId="2" r:id="rId8"/>
-    <sheet name="tabela 9 Dezenas mais sorteadas" sheetId="21" r:id="rId9"/>
-    <sheet name="tabela 10 - Média das dezenas" sheetId="22" r:id="rId10"/>
-    <sheet name="tabela 11 - Dezenas + atrasadas" sheetId="3" r:id="rId11"/>
-    <sheet name="tabela 12 - Pares e ímpares" sheetId="4" r:id="rId12"/>
-    <sheet name="tabela 13 - Números primos" sheetId="5" r:id="rId13"/>
-    <sheet name="tabela 14 - multiplos de 3" sheetId="6" r:id="rId14"/>
-    <sheet name="tabela 15 -Números de Fibonacci" sheetId="7" r:id="rId15"/>
-    <sheet name="tabela 16 Soma das dezenas" sheetId="8" r:id="rId16"/>
-    <sheet name="tabela 17 repetidas do concurso" sheetId="9" r:id="rId17"/>
+    <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabela 2" sheetId="14" r:id="rId2"/>
+    <sheet name="Tabela 3" sheetId="15" r:id="rId3"/>
+    <sheet name="Tabela 4" sheetId="16" r:id="rId4"/>
+    <sheet name="Tabela 5" sheetId="17" r:id="rId5"/>
+    <sheet name="Tabela 6" sheetId="18" r:id="rId6"/>
+    <sheet name="Tabela 7" sheetId="19" r:id="rId7"/>
+    <sheet name="Tabela 8" sheetId="2" r:id="rId8"/>
+    <sheet name="Tabela 9" sheetId="21" r:id="rId9"/>
+    <sheet name="Tabela 10" sheetId="22" r:id="rId10"/>
+    <sheet name="Tabela 11" sheetId="3" r:id="rId11"/>
+    <sheet name="Tabela 12" sheetId="4" r:id="rId12"/>
+    <sheet name="Tabela 13" sheetId="5" r:id="rId13"/>
+    <sheet name="Tabela 14" sheetId="6" r:id="rId14"/>
+    <sheet name="Tabela 15" sheetId="7" r:id="rId15"/>
+    <sheet name="Tabela 16" sheetId="8" r:id="rId16"/>
+    <sheet name="Tabela 17" sheetId="9" r:id="rId17"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -59,9 +59,6 @@
     <t>0,6   </t>
   </si>
   <si>
-    <t>dezenas</t>
-  </si>
-  <si>
     <t>numero de vez</t>
   </si>
   <si>
@@ -1185,6 +1182,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>dezena</t>
   </si>
 </sst>
 </file>
@@ -2093,30 +2093,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="57" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2639,9 +2637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95222CB0-4FEE-4ECC-A204-198FE05188F6}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2651,10 +2647,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="49" t="s">
-        <v>7</v>
+        <v>382</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2866,9 +2862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2878,10 +2872,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="49" t="s">
-        <v>7</v>
+        <v>382</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3110,25 +3104,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="54" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="C1" s="55" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="D1" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="E1" s="55" t="s">
         <v>327</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="F1" s="55" t="s">
         <v>328</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="G1" s="55" t="s">
         <v>329</v>
-      </c>
-      <c r="G1" s="55" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3145,7 +3139,7 @@
         <v>2.8199999999999999E-2</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F2" s="55">
         <v>3343</v>
@@ -3168,7 +3162,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F3" s="55">
         <v>3158</v>
@@ -3191,7 +3185,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F4" s="55">
         <v>1244</v>
@@ -3214,7 +3208,7 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F5" s="55">
         <v>3336</v>
@@ -3237,7 +3231,7 @@
         <v>7.2099999999999997E-2</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F6" s="55">
         <v>3353</v>
@@ -3260,7 +3254,7 @@
         <v>0.20480000000000001</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F7" s="55">
         <v>3364</v>
@@ -3283,7 +3277,7 @@
         <v>0.30869999999999997</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F8" s="55">
         <v>3369</v>
@@ -3306,7 +3300,7 @@
         <v>0.25380000000000003</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F9" s="55">
         <v>3366</v>
@@ -3329,7 +3323,7 @@
         <v>0.11840000000000001</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F10" s="55">
         <v>3361</v>
@@ -3363,22 +3357,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B1" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="D1" s="55" t="s">
         <v>327</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="E1" s="55" t="s">
         <v>328</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="F1" s="55" t="s">
         <v>329</v>
-      </c>
-      <c r="F1" s="55" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3392,7 +3386,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E2" s="55">
         <v>2090</v>
@@ -3412,7 +3406,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E3" s="55">
         <v>3204</v>
@@ -3432,7 +3426,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E4" s="55">
         <v>3334</v>
@@ -3452,7 +3446,7 @@
         <v>0.17449999999999999</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E5" s="55">
         <v>3365</v>
@@ -3472,7 +3466,7 @@
         <v>0.309</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E6" s="55">
         <v>3369</v>
@@ -3492,7 +3486,7 @@
         <v>0.29239999999999999</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E7" s="55">
         <v>3367</v>
@@ -3512,7 +3506,7 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E8" s="55">
         <v>3353</v>
@@ -3532,7 +3526,7 @@
         <v>3.0599999999999999E-2</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E9" s="55">
         <v>3261</v>
@@ -3552,7 +3546,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E10" s="55">
         <v>2826</v>
@@ -3570,7 +3564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -3586,22 +3580,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" t="s">
         <v>326</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>327</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>328</v>
       </c>
-      <c r="E1" t="s">
-        <v>329</v>
-      </c>
       <c r="F1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3615,7 +3609,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E2" s="55">
         <v>3225</v>
@@ -3636,7 +3630,7 @@
         <v>2.2599999999999999E-2</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E3" s="55">
         <v>3364</v>
@@ -3657,7 +3651,7 @@
         <v>0.108</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E4" s="55">
         <v>3357</v>
@@ -3678,7 +3672,7 @@
         <v>0.26950000000000002</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E5" s="55">
         <v>3365</v>
@@ -3699,7 +3693,7 @@
         <v>0.3357</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E6" s="55">
         <v>3367</v>
@@ -3720,7 +3714,7 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E7" s="55">
         <v>3369</v>
@@ -3741,7 +3735,7 @@
         <v>6.0299999999999999E-2</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E8" s="55">
         <v>3327</v>
@@ -3762,7 +3756,7 @@
         <v>7.4000000000000003E-3</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E9" s="55">
         <v>2713</v>
@@ -3815,22 +3809,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" t="s">
         <v>326</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>327</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>328</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>329</v>
-      </c>
-      <c r="F1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3844,7 +3838,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E2" s="55">
         <v>3352</v>
@@ -3865,7 +3859,7 @@
         <v>6.08E-2</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E3" s="55">
         <v>3321</v>
@@ -3886,7 +3880,7 @@
         <v>0.1956</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E4" s="55">
         <v>3367</v>
@@ -3907,7 +3901,7 @@
         <v>0.34079999999999999</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E5" s="55">
         <v>3369</v>
@@ -3928,7 +3922,7 @@
         <v>0.2802</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E6" s="55">
         <v>3364</v>
@@ -3949,7 +3943,7 @@
         <v>0.1057</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E7" s="55">
         <v>3363</v>
@@ -3970,7 +3964,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E8" s="55">
         <v>3308</v>
@@ -4032,27 +4026,27 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" t="s">
         <v>326</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>327</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>328</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>329</v>
-      </c>
-      <c r="F1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B2" s="55">
         <v>1</v>
@@ -4061,7 +4055,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E2" s="55">
         <v>1562</v>
@@ -4074,7 +4068,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B3" s="55">
         <v>9</v>
@@ -4083,7 +4077,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E3" s="55">
         <v>2818</v>
@@ -4096,7 +4090,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B4" s="55">
         <v>132</v>
@@ -4105,7 +4099,7 @@
         <v>3.9199999999999999E-2</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E4" s="55">
         <v>3361</v>
@@ -4118,7 +4112,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B5" s="55">
         <v>502</v>
@@ -4127,7 +4121,7 @@
         <v>0.14899999999999999</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E5" s="55">
         <v>3363</v>
@@ -4140,7 +4134,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="55" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B6" s="55">
         <v>1011</v>
@@ -4149,7 +4143,7 @@
         <v>0.30009999999999998</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E6" s="55">
         <v>3368</v>
@@ -4162,7 +4156,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="55" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B7" s="55">
         <v>957</v>
@@ -4171,7 +4165,7 @@
         <v>0.28410000000000002</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E7" s="55">
         <v>3369</v>
@@ -4184,7 +4178,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="55" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B8" s="55">
         <v>588</v>
@@ -4193,7 +4187,7 @@
         <v>0.17449999999999999</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E8" s="55">
         <v>3355</v>
@@ -4206,7 +4200,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="55" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B9" s="55">
         <v>153</v>
@@ -4215,7 +4209,7 @@
         <v>4.5400000000000003E-2</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E9" s="55">
         <v>3360</v>
@@ -4228,7 +4222,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B10" s="55">
         <v>15</v>
@@ -4237,7 +4231,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E10" s="55">
         <v>3367</v>
@@ -4250,7 +4244,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="55" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B11" s="55">
         <v>1</v>
@@ -4259,7 +4253,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E11" s="55">
         <v>3279</v>
@@ -4309,12 +4303,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="F34:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
@@ -4324,22 +4319,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" t="s">
         <v>326</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>327</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>328</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>329</v>
-      </c>
-      <c r="F1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4353,7 +4348,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="D2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E2">
         <v>882</v>
@@ -4373,7 +4368,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="D3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E3">
         <v>3203</v>
@@ -4393,7 +4388,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E4">
         <v>3360</v>
@@ -4413,7 +4408,7 @@
         <v>0.24279999999999999</v>
       </c>
       <c r="D5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E5">
         <v>3367</v>
@@ -4433,7 +4428,7 @@
         <v>0.32650000000000001</v>
       </c>
       <c r="D6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E6">
         <v>3369</v>
@@ -4453,7 +4448,7 @@
         <v>0.21940000000000001</v>
       </c>
       <c r="D7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E7">
         <v>3368</v>
@@ -4473,7 +4468,7 @@
         <v>8.3099999999999993E-2</v>
       </c>
       <c r="D8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E8">
         <v>3351</v>
@@ -4493,7 +4488,7 @@
         <v>1.66E-2</v>
       </c>
       <c r="D9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E9">
         <v>3350</v>
@@ -4513,7 +4508,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="D10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E10">
         <v>2507</v>
@@ -4533,7 +4528,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="D11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E11">
         <v>349</v>
@@ -4553,10 +4548,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
+        <v>380</v>
+      </c>
+      <c r="E12" t="s">
         <v>381</v>
-      </c>
-      <c r="E12" t="s">
-        <v>382</v>
       </c>
       <c r="F12">
         <v>3369</v>
@@ -4571,18 +4566,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49DC905-6AFC-4DE1-BC00-455AF038A627}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>7</v>
+        <v>382</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>0</v>
@@ -4591,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>2</v>
@@ -4599,7 +4592,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6">
         <v>1296</v>
@@ -4614,12 +4607,12 @@
         <v>15</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="10">
         <v>1294</v>
@@ -4634,12 +4627,12 @@
         <v>16</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6">
         <v>1289</v>
@@ -4654,12 +4647,12 @@
         <v>15</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="10">
         <v>1283</v>
@@ -4674,12 +4667,12 @@
         <v>13</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="6">
         <v>1273</v>
@@ -4694,12 +4687,12 @@
         <v>15</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="10">
         <v>1269</v>
@@ -4714,12 +4707,12 @@
         <v>14</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="6">
         <v>1266</v>
@@ -4734,12 +4727,12 @@
         <v>15</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="10">
         <v>1263</v>
@@ -4754,12 +4747,12 @@
         <v>19</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="6">
         <v>1256</v>
@@ -4774,12 +4767,12 @@
         <v>12</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="10">
         <v>1255</v>
@@ -4794,12 +4787,12 @@
         <v>19</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="6">
         <v>1254</v>
@@ -4814,12 +4807,12 @@
         <v>22</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="10">
         <v>1251</v>
@@ -4834,12 +4827,12 @@
         <v>14</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="6">
         <v>1251</v>
@@ -4854,12 +4847,12 @@
         <v>16</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="10">
         <v>1249</v>
@@ -4874,12 +4867,12 @@
         <v>16</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="6">
         <v>1247</v>
@@ -4894,12 +4887,12 @@
         <v>19</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="10">
         <v>1246</v>
@@ -4914,12 +4907,12 @@
         <v>11</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="6">
         <v>1246</v>
@@ -4934,12 +4927,12 @@
         <v>18</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="10">
         <v>1244</v>
@@ -4954,12 +4947,12 @@
         <v>14</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="6">
         <v>1243</v>
@@ -4974,12 +4967,12 @@
         <v>14</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="10">
         <v>1240</v>
@@ -4994,12 +4987,12 @@
         <v>17</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="6">
         <v>1238</v>
@@ -5014,12 +5007,12 @@
         <v>15</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="10">
         <v>1238</v>
@@ -5034,12 +5027,12 @@
         <v>18</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="6">
         <v>1237</v>
@@ -5054,12 +5047,12 @@
         <v>15</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="10">
         <v>1235</v>
@@ -5074,12 +5067,12 @@
         <v>13</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="6">
         <v>1234</v>
@@ -5094,12 +5087,12 @@
         <v>24</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="6">
         <v>1233</v>
@@ -5114,12 +5107,12 @@
         <v>14</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="10">
         <v>1233</v>
@@ -5134,12 +5127,12 @@
         <v>21</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" s="6">
         <v>1232</v>
@@ -5154,12 +5147,12 @@
         <v>15</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="10">
         <v>1231</v>
@@ -5174,12 +5167,12 @@
         <v>16</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="6">
         <v>1231</v>
@@ -5194,12 +5187,12 @@
         <v>19</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="10">
         <v>1230</v>
@@ -5214,12 +5207,12 @@
         <v>16</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="6">
         <v>1229</v>
@@ -5234,12 +5227,12 @@
         <v>15</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="10">
         <v>1228</v>
@@ -5254,12 +5247,12 @@
         <v>15</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="6">
         <v>1228</v>
@@ -5274,12 +5267,12 @@
         <v>13</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="10">
         <v>1228</v>
@@ -5294,12 +5287,12 @@
         <v>18</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="6">
         <v>1227</v>
@@ -5314,12 +5307,12 @@
         <v>17</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="10">
         <v>1227</v>
@@ -5334,12 +5327,12 @@
         <v>19</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="6">
         <v>1226</v>
@@ -5354,12 +5347,12 @@
         <v>13</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="10">
         <v>1226</v>
@@ -5374,12 +5367,12 @@
         <v>19</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="6">
         <v>1225</v>
@@ -5394,12 +5387,12 @@
         <v>14</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="10">
         <v>1225</v>
@@ -5414,12 +5407,12 @@
         <v>13</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" s="6">
         <v>1224</v>
@@ -5434,12 +5427,12 @@
         <v>17</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="10">
         <v>1223</v>
@@ -5454,12 +5447,12 @@
         <v>17</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="6">
         <v>1223</v>
@@ -5474,12 +5467,12 @@
         <v>15</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" s="10">
         <v>1223</v>
@@ -5494,12 +5487,12 @@
         <v>14</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" s="6">
         <v>1222</v>
@@ -5514,12 +5507,12 @@
         <v>16</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" s="10">
         <v>1221</v>
@@ -5534,12 +5527,12 @@
         <v>15</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49" s="6">
         <v>1221</v>
@@ -5554,12 +5547,12 @@
         <v>23</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" s="10">
         <v>1221</v>
@@ -5574,12 +5567,12 @@
         <v>18</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" s="6">
         <v>1219</v>
@@ -5594,7 +5587,7 @@
         <v>14</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -5606,18 +5599,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1913FCDD-90D2-4D3D-B956-42C7B8EE50F8}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:L1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>7</v>
+        <v>382</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>0</v>
@@ -5626,7 +5617,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>2</v>
@@ -5634,7 +5625,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="6">
         <v>1126</v>
@@ -5649,12 +5640,12 @@
         <v>18</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="10">
         <v>1172</v>
@@ -5669,12 +5660,12 @@
         <v>13</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="6">
         <v>1149</v>
@@ -5689,12 +5680,12 @@
         <v>15</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="10">
         <v>1148</v>
@@ -5709,12 +5700,12 @@
         <v>19</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="6">
         <v>1180</v>
@@ -5729,12 +5720,12 @@
         <v>18</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="10">
         <v>1206</v>
@@ -5749,12 +5740,12 @@
         <v>17</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="6">
         <v>1154</v>
@@ -5769,12 +5760,12 @@
         <v>21</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="10">
         <v>1160</v>
@@ -5789,12 +5780,12 @@
         <v>17</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="6">
         <v>1188</v>
@@ -5809,12 +5800,12 @@
         <v>22</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="10">
         <v>1173</v>
@@ -5829,12 +5820,12 @@
         <v>15</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="6">
         <v>1247</v>
@@ -5849,12 +5840,12 @@
         <v>19</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="10">
         <v>1234</v>
@@ -5869,12 +5860,12 @@
         <v>24</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="6">
         <v>1217</v>
@@ -5889,12 +5880,12 @@
         <v>14</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="10">
         <v>1192</v>
@@ -5909,12 +5900,12 @@
         <v>17</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="6">
         <v>1189</v>
@@ -5929,12 +5920,12 @@
         <v>16</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="10">
         <v>1187</v>
@@ -5949,12 +5940,12 @@
         <v>18</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18" s="6">
         <v>1160</v>
@@ -5969,12 +5960,12 @@
         <v>20</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" s="10">
         <v>1147</v>
@@ -5989,12 +5980,12 @@
         <v>21</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="6">
         <v>1243</v>
@@ -6009,12 +6000,12 @@
         <v>14</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" s="10">
         <v>1214</v>
@@ -6029,12 +6020,12 @@
         <v>16</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" s="6">
         <v>1204</v>
@@ -6049,12 +6040,12 @@
         <v>17</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="10">
         <v>1192</v>
@@ -6069,12 +6060,12 @@
         <v>17</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24" s="6">
         <v>1187</v>
@@ -6089,12 +6080,12 @@
         <v>21</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B25" s="10">
         <v>1177</v>
@@ -6109,12 +6100,12 @@
         <v>18</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B26" s="6">
         <v>1173</v>
@@ -6129,12 +6120,12 @@
         <v>15</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B27" s="10">
         <v>1168</v>
@@ -6149,12 +6140,12 @@
         <v>16</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="6">
         <v>1269</v>
@@ -6169,12 +6160,12 @@
         <v>14</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="10">
         <v>1240</v>
@@ -6189,12 +6180,12 @@
         <v>17</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6">
         <v>1228</v>
@@ -6209,12 +6200,12 @@
         <v>15</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="10">
         <v>1227</v>
@@ -6229,12 +6220,12 @@
         <v>17</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B32" s="6">
         <v>1209</v>
@@ -6249,12 +6240,12 @@
         <v>16</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B33" s="10">
         <v>1204</v>
@@ -6269,12 +6260,12 @@
         <v>13</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B34" s="6">
         <v>1203</v>
@@ -6289,12 +6280,12 @@
         <v>21</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B35" s="10">
         <v>1201</v>
@@ -6309,12 +6300,12 @@
         <v>16</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B36" s="6">
         <v>1201</v>
@@ -6329,12 +6320,12 @@
         <v>14</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B37" s="10">
         <v>1196</v>
@@ -6349,12 +6340,12 @@
         <v>16</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B38" s="6">
         <v>1196</v>
@@ -6369,12 +6360,12 @@
         <v>20</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B39" s="10">
         <v>1194</v>
@@ -6389,12 +6380,12 @@
         <v>17</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B40" s="6">
         <v>1194</v>
@@ -6409,12 +6400,12 @@
         <v>17</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B41" s="10">
         <v>1184</v>
@@ -6429,12 +6420,12 @@
         <v>17</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B42" s="6">
         <v>1172</v>
@@ -6449,12 +6440,12 @@
         <v>16</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B43" s="10">
         <v>1167</v>
@@ -6469,12 +6460,12 @@
         <v>16</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B44" s="6">
         <v>1163</v>
@@ -6489,12 +6480,12 @@
         <v>17</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B45" s="10">
         <v>1158</v>
@@ -6509,12 +6500,12 @@
         <v>15</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B46" s="6">
         <v>1154</v>
@@ -6529,12 +6520,12 @@
         <v>19</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B47" s="10">
         <v>1134</v>
@@ -6549,12 +6540,12 @@
         <v>18</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B48" s="6">
         <v>1116</v>
@@ -6569,12 +6560,12 @@
         <v>20</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B49" s="10">
         <v>1210</v>
@@ -6589,12 +6580,12 @@
         <v>19</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B50" s="6">
         <v>1204</v>
@@ -6609,12 +6600,12 @@
         <v>16</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B51" s="10">
         <v>1203</v>
@@ -6629,12 +6620,12 @@
         <v>17</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B52" s="6">
         <v>1202</v>
@@ -6649,12 +6640,12 @@
         <v>24</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B53" s="10">
         <v>1202</v>
@@ -6669,12 +6660,12 @@
         <v>15</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B54" s="6">
         <v>1196</v>
@@ -6689,12 +6680,12 @@
         <v>22</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B55" s="10">
         <v>1193</v>
@@ -6709,12 +6700,12 @@
         <v>15</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B56" s="6">
         <v>1192</v>
@@ -6729,12 +6720,12 @@
         <v>18</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B57" s="10">
         <v>1191</v>
@@ -6749,12 +6740,12 @@
         <v>16</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B58" s="6">
         <v>1186</v>
@@ -6769,12 +6760,12 @@
         <v>25</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B59" s="10">
         <v>1185</v>
@@ -6789,12 +6780,12 @@
         <v>17</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B60" s="6">
         <v>1181</v>
@@ -6809,12 +6800,12 @@
         <v>15</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B61" s="10">
         <v>1178</v>
@@ -6829,12 +6820,12 @@
         <v>18</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B62" s="6">
         <v>1173</v>
@@ -6849,12 +6840,12 @@
         <v>14</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B63" s="10">
         <v>1173</v>
@@ -6869,12 +6860,12 @@
         <v>20</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B64" s="6">
         <v>1162</v>
@@ -6889,12 +6880,12 @@
         <v>18</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B65" s="10">
         <v>1161</v>
@@ -6909,12 +6900,12 @@
         <v>14</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B66" s="6">
         <v>1158</v>
@@ -6929,12 +6920,12 @@
         <v>19</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B67" s="10">
         <v>1158</v>
@@ -6949,12 +6940,12 @@
         <v>17</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B68" s="6">
         <v>1152</v>
@@ -6969,12 +6960,12 @@
         <v>20</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B69" s="10">
         <v>1151</v>
@@ -6989,12 +6980,12 @@
         <v>16</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B70" s="6">
         <v>1141</v>
@@ -7009,12 +7000,12 @@
         <v>22</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B71" s="10">
         <v>1134</v>
@@ -7029,12 +7020,12 @@
         <v>17</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B72" s="6">
         <v>1124</v>
@@ -7049,12 +7040,12 @@
         <v>17</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B73" s="10">
         <v>1120</v>
@@ -7069,12 +7060,12 @@
         <v>13</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B74" s="6">
         <v>1117</v>
@@ -7089,12 +7080,12 @@
         <v>17</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B75" s="10">
         <v>1115</v>
@@ -7109,12 +7100,12 @@
         <v>17</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B76" s="6">
         <v>1110</v>
@@ -7129,12 +7120,12 @@
         <v>21</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B77" s="10">
         <v>1296</v>
@@ -7149,12 +7140,12 @@
         <v>15</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B78" s="6">
         <v>1273</v>
@@ -7169,12 +7160,12 @@
         <v>15</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B79" s="10">
         <v>1251</v>
@@ -7189,12 +7180,12 @@
         <v>14</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B80" s="6">
         <v>1249</v>
@@ -7209,12 +7200,12 @@
         <v>16</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B81" s="10">
         <v>1246</v>
@@ -7229,12 +7220,12 @@
         <v>11</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B82" s="6">
         <v>1238</v>
@@ -7249,12 +7240,12 @@
         <v>15</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B83" s="10">
         <v>1233</v>
@@ -7269,12 +7260,12 @@
         <v>14</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B84" s="6">
         <v>1231</v>
@@ -7289,12 +7280,12 @@
         <v>16</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B85" s="10">
         <v>1228</v>
@@ -7309,12 +7300,12 @@
         <v>13</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B86" s="6">
         <v>1225</v>
@@ -7329,12 +7320,12 @@
         <v>14</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B87" s="10">
         <v>1223</v>
@@ -7349,12 +7340,12 @@
         <v>17</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B88" s="6">
         <v>1223</v>
@@ -7369,12 +7360,12 @@
         <v>15</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B89" s="10">
         <v>1222</v>
@@ -7389,12 +7380,12 @@
         <v>16</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B90" s="6">
         <v>1221</v>
@@ -7409,12 +7400,12 @@
         <v>15</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B91" s="10">
         <v>1219</v>
@@ -7429,12 +7420,12 @@
         <v>14</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B92" s="6">
         <v>1217</v>
@@ -7449,12 +7440,12 @@
         <v>19</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B93" s="10">
         <v>1216</v>
@@ -7469,12 +7460,12 @@
         <v>16</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B94" s="6">
         <v>1214</v>
@@ -7489,12 +7480,12 @@
         <v>19</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B95" s="10">
         <v>1212</v>
@@ -7509,12 +7500,12 @@
         <v>14</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B96" s="6">
         <v>1208</v>
@@ -7529,12 +7520,12 @@
         <v>13</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B97" s="10">
         <v>1206</v>
@@ -7549,12 +7540,12 @@
         <v>16</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B98" s="6">
         <v>1205</v>
@@ -7569,12 +7560,12 @@
         <v>14</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B99" s="10">
         <v>1200</v>
@@ -7589,12 +7580,12 @@
         <v>13</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B100" s="6">
         <v>1200</v>
@@ -7609,12 +7600,12 @@
         <v>14</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B101" s="10">
         <v>1199</v>
@@ -7629,7 +7620,7 @@
         <v>20</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -7641,18 +7632,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57E50E0-C046-4223-A343-2CCD7D4D800D}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD101"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>7</v>
+        <v>382</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>0</v>
@@ -7661,7 +7650,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>2</v>
@@ -7669,7 +7658,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="6">
         <v>781</v>
@@ -7684,12 +7673,12 @@
         <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="10">
         <v>775</v>
@@ -7704,12 +7693,12 @@
         <v>25</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" s="6">
         <v>770</v>
@@ -7724,12 +7713,12 @@
         <v>23</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" s="10">
         <v>766</v>
@@ -7744,12 +7733,12 @@
         <v>21</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" s="6">
         <v>760</v>
@@ -7764,12 +7753,12 @@
         <v>27</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" s="10">
         <v>758</v>
@@ -7784,12 +7773,12 @@
         <v>22</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B8" s="6">
         <v>755</v>
@@ -7804,12 +7793,12 @@
         <v>26</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" s="10">
         <v>753</v>
@@ -7824,12 +7813,12 @@
         <v>34</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B10" s="6">
         <v>753</v>
@@ -7844,12 +7833,12 @@
         <v>30</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" s="10">
         <v>752</v>
@@ -7864,12 +7853,12 @@
         <v>24</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B12" s="6">
         <v>751</v>
@@ -7884,12 +7873,12 @@
         <v>27</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B13" s="10">
         <v>750</v>
@@ -7904,12 +7893,12 @@
         <v>31</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B14" s="6">
         <v>749</v>
@@ -7924,12 +7913,12 @@
         <v>31</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="10">
         <v>747</v>
@@ -7944,12 +7933,12 @@
         <v>27</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B16" s="6">
         <v>747</v>
@@ -7964,12 +7953,12 @@
         <v>30</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="10">
         <v>746</v>
@@ -7984,12 +7973,12 @@
         <v>29</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B18" s="6">
         <v>746</v>
@@ -8004,12 +7993,12 @@
         <v>41</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" s="10">
         <v>745</v>
@@ -8024,12 +8013,12 @@
         <v>31</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B20" s="6">
         <v>743</v>
@@ -8044,12 +8033,12 @@
         <v>27</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B21" s="10">
         <v>742</v>
@@ -8064,12 +8053,12 @@
         <v>26</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B22" s="6">
         <v>740</v>
@@ -8084,12 +8073,12 @@
         <v>32</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B23" s="10">
         <v>740</v>
@@ -8104,12 +8093,12 @@
         <v>26</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B24" s="6">
         <v>740</v>
@@ -8124,12 +8113,12 @@
         <v>27</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B25" s="10">
         <v>739</v>
@@ -8144,12 +8133,12 @@
         <v>30</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B26" s="6">
         <v>739</v>
@@ -8164,12 +8153,12 @@
         <v>26</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" s="6">
         <v>738</v>
@@ -8184,12 +8173,12 @@
         <v>31</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28" s="10">
         <v>738</v>
@@ -8204,12 +8193,12 @@
         <v>23</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B29" s="6">
         <v>738</v>
@@ -8224,12 +8213,12 @@
         <v>29</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B30" s="10">
         <v>737</v>
@@ -8244,12 +8233,12 @@
         <v>23</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B31" s="6">
         <v>736</v>
@@ -8264,12 +8253,12 @@
         <v>29</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B32" s="10">
         <v>736</v>
@@ -8284,12 +8273,12 @@
         <v>30</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B33" s="6">
         <v>735</v>
@@ -8304,12 +8293,12 @@
         <v>31</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B34" s="10">
         <v>735</v>
@@ -8324,12 +8313,12 @@
         <v>24</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B35" s="6">
         <v>735</v>
@@ -8344,12 +8333,12 @@
         <v>22</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B36" s="10">
         <v>735</v>
@@ -8364,12 +8353,12 @@
         <v>28</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B37" s="6">
         <v>734</v>
@@ -8384,12 +8373,12 @@
         <v>35</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B38" s="10">
         <v>734</v>
@@ -8404,12 +8393,12 @@
         <v>32</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B39" s="6">
         <v>734</v>
@@ -8424,12 +8413,12 @@
         <v>40</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B40" s="10">
         <v>734</v>
@@ -8444,12 +8433,12 @@
         <v>23</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B41" s="6">
         <v>733</v>
@@ -8464,12 +8453,12 @@
         <v>24</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B42" s="10">
         <v>733</v>
@@ -8484,12 +8473,12 @@
         <v>28</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B43" s="6">
         <v>733</v>
@@ -8504,12 +8493,12 @@
         <v>29</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B44" s="10">
         <v>732</v>
@@ -8524,12 +8513,12 @@
         <v>37</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B45" s="6">
         <v>732</v>
@@ -8544,12 +8533,12 @@
         <v>25</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B46" s="10">
         <v>732</v>
@@ -8564,12 +8553,12 @@
         <v>26</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B47" s="6">
         <v>732</v>
@@ -8584,12 +8573,12 @@
         <v>30</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B48" s="10">
         <v>731</v>
@@ -8604,12 +8593,12 @@
         <v>37</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B49" s="6">
         <v>731</v>
@@ -8624,12 +8613,12 @@
         <v>30</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B50" s="10">
         <v>731</v>
@@ -8644,12 +8633,12 @@
         <v>24</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B51" s="6">
         <v>731</v>
@@ -8664,7 +8653,7 @@
         <v>36</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -8676,9 +8665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E962C3F-5E26-43D7-852F-7EF2E8A45685}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8687,10 +8674,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>7</v>
+        <v>382</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>0</v>
@@ -8699,7 +8686,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>2</v>
@@ -8707,7 +8694,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2" s="6">
         <v>454</v>
@@ -8722,12 +8709,12 @@
         <v>50</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="10">
         <v>448</v>
@@ -8742,12 +8729,12 @@
         <v>44</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B4" s="6">
         <v>447</v>
@@ -8762,12 +8749,12 @@
         <v>45</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B5" s="10">
         <v>447</v>
@@ -8782,12 +8769,12 @@
         <v>31</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6" s="6">
         <v>443</v>
@@ -8802,12 +8789,12 @@
         <v>50</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B7" s="10">
         <v>441</v>
@@ -8822,12 +8809,12 @@
         <v>46</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B8" s="6">
         <v>440</v>
@@ -8842,12 +8829,12 @@
         <v>51</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B9" s="10">
         <v>440</v>
@@ -8862,12 +8849,12 @@
         <v>35</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B10" s="6">
         <v>439</v>
@@ -8882,12 +8869,12 @@
         <v>52</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B11" s="10">
         <v>438</v>
@@ -8902,12 +8889,12 @@
         <v>91</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B12" s="6">
         <v>438</v>
@@ -8922,12 +8909,12 @@
         <v>35</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B13" s="10">
         <v>437</v>
@@ -8942,12 +8929,12 @@
         <v>48</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B14" s="6">
         <v>435</v>
@@ -8962,12 +8949,12 @@
         <v>38</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B15" s="10">
         <v>434</v>
@@ -8982,12 +8969,12 @@
         <v>45</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B16" s="6">
         <v>434</v>
@@ -9002,12 +8989,12 @@
         <v>46</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B17" s="10">
         <v>433</v>
@@ -9022,12 +9009,12 @@
         <v>58</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B18" s="6">
         <v>433</v>
@@ -9042,12 +9029,12 @@
         <v>35</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B19" s="10">
         <v>432</v>
@@ -9062,12 +9049,12 @@
         <v>65</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B20" s="6">
         <v>432</v>
@@ -9082,12 +9069,12 @@
         <v>59</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B21" s="10">
         <v>431</v>
@@ -9102,12 +9089,12 @@
         <v>44</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B22" s="6">
         <v>430</v>
@@ -9122,12 +9109,12 @@
         <v>58</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B23" s="10">
         <v>430</v>
@@ -9142,12 +9129,12 @@
         <v>49</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B24" s="6">
         <v>430</v>
@@ -9162,12 +9149,12 @@
         <v>41</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B25" s="10">
         <v>430</v>
@@ -9182,12 +9169,12 @@
         <v>41</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B26" s="6">
         <v>430</v>
@@ -9202,12 +9189,12 @@
         <v>37</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B27" s="6">
         <v>429</v>
@@ -9222,12 +9209,12 @@
         <v>43</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B28" s="10">
         <v>429</v>
@@ -9242,12 +9229,12 @@
         <v>51</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B29" s="6">
         <v>429</v>
@@ -9262,12 +9249,12 @@
         <v>66</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B30" s="10">
         <v>429</v>
@@ -9282,12 +9269,12 @@
         <v>44</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B31" s="6">
         <v>429</v>
@@ -9302,12 +9289,12 @@
         <v>63</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B32" s="10">
         <v>429</v>
@@ -9322,12 +9309,12 @@
         <v>46</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B33" s="6">
         <v>429</v>
@@ -9342,12 +9329,12 @@
         <v>50</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B34" s="10">
         <v>429</v>
@@ -9362,12 +9349,12 @@
         <v>61</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B35" s="6">
         <v>429</v>
@@ -9382,12 +9369,12 @@
         <v>42</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B36" s="10">
         <v>429</v>
@@ -9402,12 +9389,12 @@
         <v>50</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B37" s="6">
         <v>428</v>
@@ -9422,12 +9409,12 @@
         <v>48</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B38" s="10">
         <v>427</v>
@@ -9442,12 +9429,12 @@
         <v>50</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B39" s="6">
         <v>427</v>
@@ -9462,12 +9449,12 @@
         <v>45</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B40" s="10">
         <v>427</v>
@@ -9482,12 +9469,12 @@
         <v>40</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B41" s="6">
         <v>427</v>
@@ -9502,12 +9489,12 @@
         <v>36</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B42" s="10">
         <v>427</v>
@@ -9522,12 +9509,12 @@
         <v>48</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B43" s="6">
         <v>427</v>
@@ -9542,12 +9529,12 @@
         <v>38</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B44" s="10">
         <v>427</v>
@@ -9562,12 +9549,12 @@
         <v>45</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B45" s="6">
         <v>426</v>
@@ -9582,12 +9569,12 @@
         <v>34</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B46" s="10">
         <v>426</v>
@@ -9602,12 +9589,12 @@
         <v>46</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B47" s="6">
         <v>426</v>
@@ -9622,12 +9609,12 @@
         <v>39</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B48" s="10">
         <v>426</v>
@@ -9642,12 +9629,12 @@
         <v>50</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B49" s="6">
         <v>426</v>
@@ -9662,12 +9649,12 @@
         <v>63</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B50" s="10">
         <v>426</v>
@@ -9682,12 +9669,12 @@
         <v>53</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B51" s="6">
         <v>426</v>
@@ -9702,7 +9689,7 @@
         <v>42</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -9714,18 +9701,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7958255B-CF0D-4C88-BA4F-4B5DABFBCFDF}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD51"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>7</v>
+        <v>382</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>0</v>
@@ -9734,7 +9719,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>2</v>
@@ -9742,7 +9727,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" s="6">
         <v>45</v>
@@ -9757,12 +9742,12 @@
         <v>200</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B3" s="10">
         <v>70</v>
@@ -9777,12 +9762,12 @@
         <v>204</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B4" s="6">
         <v>203</v>
@@ -9797,12 +9782,12 @@
         <v>85</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" s="10">
         <v>172</v>
@@ -9817,12 +9802,12 @@
         <v>109</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B6" s="6">
         <v>59</v>
@@ -9837,12 +9822,12 @@
         <v>240</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" s="10">
         <v>80</v>
@@ -9857,12 +9842,12 @@
         <v>221</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" s="6">
         <v>122</v>
@@ -9877,12 +9862,12 @@
         <v>118</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B9" s="10">
         <v>122</v>
@@ -9897,12 +9882,12 @@
         <v>133</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B10" s="6">
         <v>182</v>
@@ -9917,12 +9902,12 @@
         <v>132</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B11" s="10">
         <v>210</v>
@@ -9937,12 +9922,12 @@
         <v>125</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B12" s="6">
         <v>112</v>
@@ -9957,12 +9942,12 @@
         <v>94</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B13" s="10">
         <v>195</v>
@@ -9977,12 +9962,12 @@
         <v>93</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B14" s="6">
         <v>196</v>
@@ -9997,12 +9982,12 @@
         <v>85</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B15" s="10">
         <v>68</v>
@@ -10017,12 +10002,12 @@
         <v>353</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B16" s="6">
         <v>184</v>
@@ -10037,7 +10022,7 @@
         <v>84</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -10060,18 +10045,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7998DA-9AF7-4B35-A451-170CE2E563E8}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>7</v>
+        <v>382</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>0</v>
@@ -10080,7 +10063,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>2</v>
@@ -10088,7 +10071,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B2" s="6">
         <v>11</v>
@@ -10103,12 +10086,12 @@
         <v>716</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B3" s="10">
         <v>80</v>
@@ -10123,12 +10106,12 @@
         <v>138</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B4" s="6">
         <v>89</v>
@@ -10143,12 +10126,12 @@
         <v>234</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B5" s="10">
         <v>197</v>
@@ -10163,12 +10146,12 @@
         <v>68</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B6" s="6">
         <v>182</v>
@@ -10183,12 +10166,12 @@
         <v>84</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B7" s="6">
         <v>197</v>
@@ -10203,12 +10186,12 @@
         <v>63</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B8" s="10">
         <v>184</v>
@@ -10223,12 +10206,12 @@
         <v>115</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B9" s="6">
         <v>231</v>
@@ -10243,12 +10226,12 @@
         <v>76</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B10" s="10">
         <v>188</v>
@@ -10263,12 +10246,12 @@
         <v>98</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B11" s="6">
         <v>171</v>
@@ -10283,7 +10266,7 @@
         <v>151</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -10306,18 +10289,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:M1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>7</v>
+        <v>382</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>0</v>
@@ -10326,7 +10307,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>2</v>
@@ -10349,7 +10330,7 @@
         <v>69</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -10369,7 +10350,7 @@
         <v>98</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -10389,7 +10370,7 @@
         <v>231</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -10409,7 +10390,7 @@
         <v>152</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -10429,7 +10410,7 @@
         <v>610</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -10449,7 +10430,7 @@
         <v>579</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -10469,7 +10450,7 @@
         <v>1203</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -10489,7 +10470,7 @@
         <v>1380</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -10509,7 +10490,7 @@
         <v>153</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -10532,9 +10513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDC0E5D-C51F-440F-AF47-EC8B547E7E98}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10544,10 +10523,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="49" t="s">
-        <v>7</v>
+        <v>382</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
